--- a/iskljucenja.rs.xlsx
+++ b/iskljucenja.rs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23930"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B6D1DDE-6285-4FE1-97E9-4E9FEF97AEC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63F37D95-DADB-4BCA-AE0D-EF778F048F8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="248">
   <si>
     <t>Section</t>
   </si>
@@ -100,12 +100,54 @@
     <t>Home page</t>
   </si>
   <si>
-    <t>Verify that clicking on "+" button underneath the "Adresa 1" opens a smaller window in the same tab with further information fields to be filled</t>
+    <t>Verify that clicking on "+" button underneath the "Address 1" opens a smaller window in the same tab with further information fields to be filled</t>
+  </si>
+  <si>
+    <t>TC16</t>
   </si>
   <si>
     <t>Verify that when clicking on "Municipality in Belgrade'' opens a small window with all Belgrade communities</t>
   </si>
   <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>Verify that "Municipality in Belgrade" needs to be chosen and fields "Street name" and "Number" must be filled, or if address has no number then "No number" checkbox must be ticked, for the address to be added</t>
+  </si>
+  <si>
+    <t>TC18, TC19</t>
+  </si>
+  <si>
+    <t>Verify that "Number" field must contain only valid numbers</t>
+  </si>
+  <si>
+    <t>TC20, TC21, TC22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Verify that when clicking on button with some value goes to value page</t>
+  </si>
+  <si>
+    <t>TC23, TC24, TC25</t>
+  </si>
+  <si>
+    <t>Verify that when clicking on app logo goes to home page</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>Verify that button with some alphabet translates app to the alphabet</t>
+  </si>
+  <si>
+    <t>TC27,28,29</t>
+  </si>
+  <si>
     <t>TC ID</t>
   </si>
   <si>
@@ -130,9 +172,6 @@
     <t>16.</t>
   </si>
   <si>
-    <t>Verify that clicking on "+" button underneath the "Address 1" opens a smaller window in the same tab with further information fields to be filled</t>
-  </si>
-  <si>
     <t>1. Open Browser</t>
   </si>
   <si>
@@ -325,9 +364,6 @@
     <t>21.</t>
   </si>
   <si>
-    <t>Verify that "Number" field must contain only valid numbers</t>
-  </si>
-  <si>
     <t>"Number" field can contain only numbers between 1 and 1000, TC 16 is done</t>
   </si>
   <si>
@@ -614,9 +650,6 @@
   </si>
   <si>
     <t>26.</t>
-  </si>
-  <si>
-    <t>Verify that when clicking on app logo goes to home page</t>
   </si>
   <si>
     <t>3. Click on "LEGAL" on the bottom</t>
@@ -1306,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21382804-EC9B-4AB0-80C0-11ABB09F923A}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1319,7 +1352,7 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1">
+    <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="35.25" customHeight="1">
+    <row r="2" spans="1:4" ht="35.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1341,7 +1374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
+    <row r="3" spans="1:4" ht="30">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1349,7 +1382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.5" customHeight="1">
+    <row r="4" spans="1:4" ht="31.5" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45">
+    <row r="5" spans="1:4" ht="45">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +1398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:4" ht="30">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1373,7 +1406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="48.75" customHeight="1">
+    <row r="7" spans="1:4" ht="48.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1384,7 +1417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:4" ht="30">
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1392,7 +1425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45">
+    <row r="9" spans="1:4" ht="45">
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1400,17 +1433,69 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60">
+    <row r="10" spans="1:4" ht="60">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="48" customHeight="1">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48" customHeight="1">
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="90">
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30">
+      <c r="B15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30">
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1422,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1438,473 +1523,473 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="44.25" customHeight="1">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="D3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="D4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="D7" s="3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="D8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="D9" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="92.25" customHeight="1">
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="47.25" customHeight="1">
       <c r="B15" s="6"/>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="D16" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
       <c r="D18" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30">
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45">
       <c r="D20" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30">
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30">
       <c r="D22" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="60.75" customHeight="1">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45">
       <c r="D25" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="D26" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30">
       <c r="D27" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45">
       <c r="D28" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
       <c r="D29" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="45">
       <c r="D30" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30">
       <c r="D31" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30">
       <c r="D32" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="D35" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30">
       <c r="D36" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="D37" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="45">
       <c r="D38" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="D39" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="D40" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="45">
       <c r="D41" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="D42" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="45">
       <c r="D43" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="D44" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30">
       <c r="D45" s="3" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30">
       <c r="D46" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="45">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="D49" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30">
       <c r="D50" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="D51" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30">
       <c r="D52" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="D55" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30">
       <c r="D56" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="D57" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30">
       <c r="D58" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1936,329 +2021,329 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="D3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="D4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36.75" customHeight="1">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="D7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32.25" customHeight="1">
       <c r="D10" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="D11" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="D13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="D16" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="D17" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="D18" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="D19" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30.75" customHeight="1">
       <c r="D22" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="D23" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30">
       <c r="D24" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30">
       <c r="D25" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="43.5" customHeight="1">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="32.25" customHeight="1">
       <c r="D28" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="D29" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="D30" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="D31" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="45">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32.25" customHeight="1">
       <c r="D34" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30">
       <c r="D35" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30">
       <c r="D36" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2266,98 +2351,98 @@
     </row>
     <row r="38" spans="1:6" ht="30">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="35.25" customHeight="1">
       <c r="D39" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="D40" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30">
       <c r="D41" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="33.75" customHeight="1">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="D44" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="D45" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F45" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="D46" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="D47" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="50.25" customHeight="1">
       <c r="B48" s="6"/>
       <c r="D48" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2393,307 +2478,307 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="D3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="D4" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="D5" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="D6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="D9" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="D10" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="D11" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="D12" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="D15" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="D16" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
       <c r="D17" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30">
       <c r="D18" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="D21" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="D22" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="D23" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30">
       <c r="D24" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33" customHeight="1">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="D27" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="D28" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
       <c r="D29" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30">
       <c r="D30" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="36" customHeight="1">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="4:6">
       <c r="D33" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="4:6">
       <c r="D34" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="4:6" ht="30">
       <c r="D35" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="30">
       <c r="D36" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2711,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC02AFFC-C761-44FD-B5AE-BC24E8FEB4C4}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2725,301 +2810,301 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="C4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="C9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="C10" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="C18" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="C19" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="C20" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="C21" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E21" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="C24" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="C26" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="C29" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="C30" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="C31" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E31" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30">
       <c r="A33" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="C34" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="C35" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="C36" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="C37" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3052,7 +3137,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -3060,79 +3145,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
       <c r="A3" s="10" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="A10" s="10" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="10" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B33" s="12">
         <v>1</v>
@@ -3140,18 +3225,18 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3164,7 +3249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1999B0E2-6AEE-4356-9E7C-151461DC533E}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -3176,7 +3261,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -3184,104 +3269,104 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="10" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10"/>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="10"/>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="6" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="10" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B33" s="12">
         <v>1</v>
@@ -3289,18 +3374,18 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
